--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 9C/PRUEBA_TEMPERATURA_23_9C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 9C/PRUEBA_TEMPERATURA_23_9C.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,112 +73,136 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-11 06:45:40</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:46:42</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:47:45</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:48:48</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:49:51</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:50:54</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:51:56</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:52:59</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:54:02</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:55:05</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:56:08</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:57:10</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:58:13</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:59:16</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:00:19</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:01:22</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:02:24</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:03:27</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:04:30</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:05:33</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:06:36</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:07:38</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:08:41</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:09:44</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:10:47</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:11:50</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:12:52</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:13:55</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:14:58</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:16:01</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:17:04</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:18:06</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:19:09</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:20:12</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:21:15</t>
-  </si>
-  <si>
-    <t>2023-12-11 07:22:18</t>
+    <t>2023-12-10 21:01:00</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:02:01</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:03:02</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:04:03</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:05:05</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:06:06</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:07:07</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:08:08</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:09:10</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:10:11</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:11:12</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:12:14</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:13:15</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:14:16</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:15:17</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:16:19</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:17:20</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:18:21</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:19:23</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:20:24</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:21:25</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:22:26</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:23:28</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:24:29</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:25:30</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:26:31</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:27:33</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:28:34</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:29:35</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:30:37</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:31:38</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:32:39</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:33:40</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:34:42</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:35:43</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:36:44</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:37:46</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:38:47</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:39:48</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:40:49</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:41:51</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:42:52</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:43:53</t>
+  </si>
+  <si>
+    <t>2023-12-10 21:44:55</t>
   </si>
 </sst>
 </file>
@@ -845,117 +869,141 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$37</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>24.0996503496503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.5594405594405</c:v>
+                  <c:v>20.2972027972028</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>19.117132867132899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.805944055944</c:v>
+                  <c:v>18.8548951048951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.756993006993</c:v>
+                  <c:v>17.674825174825099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.7080419580419</c:v>
+                  <c:v>16.625874125874098</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>15.9702797202797</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.4458041958042</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>15.314685314685301</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>14.790209790209801</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>14.3968531468531</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.527972027972</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.134615384615399</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>14.265734265734199</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>14.0034965034965</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>14.134615384615399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.8723776223776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.8723776223776</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>14.0034965034965</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
+                  <c:v>13.8723776223776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.8723776223776</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.8723776223776</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>13.741258741258701</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>13.741258741258701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.8723776223776</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.134615384615399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.8723776223776</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.741258741258701</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.741258741258701</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.741258741258701</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.741258741258701</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>13.6101398601398</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="32">
+                  <c:v>14.0034965034965</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>13.479020979021</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>13.085664335664299</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="34">
+                  <c:v>13.741258741258701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.741258741258701</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.741258741258701</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.6101398601398</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.8723776223776</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>13.479020979021</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.216783216783201</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.3479020979021</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.216783216783201</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.479020979021</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.085664335664299</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.085664335664299</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13.216783216783201</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13.216783216783201</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.3479020979021</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13.216783216783201</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12.9545454545454</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13.085664335664299</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13.085664335664299</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.9545454545454</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13.085664335664299</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13.085664335664299</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>12.9545454545454</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13.085664335664299</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>13.6101398601398</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>16.494755244755201</c:v>
+                <c:pt idx="40">
+                  <c:v>13.8723776223776</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.4458041958042</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.068181818181799</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.2482517482517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,37 +1260,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.216783216783201</c:v>
+                  <c:v>13.741258741258701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.3479020979021</c:v>
+                  <c:v>13.6101398601398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.216783216783201</c:v>
+                  <c:v>14.0034965034965</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.9545454545454</c:v>
+                  <c:v>13.479020979021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.085664335664299</c:v>
+                  <c:v>13.741258741258701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.085664335664299</c:v>
+                  <c:v>13.741258741258701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.9545454545454</c:v>
+                  <c:v>13.741258741258701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.085664335664299</c:v>
+                  <c:v>13.6101398601398</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.085664335664299</c:v>
+                  <c:v>13.8723776223776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.9545454545454</c:v>
+                  <c:v>13.479020979021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.085664335664299</c:v>
+                  <c:v>13.8723776223776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1339,10 +1387,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13.097584233947838</c:v>
+                  <c:v>13.717418944691644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.097584233947838</c:v>
+                  <c:v>13.717418944691644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3064,7 +3112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -3119,11 +3167,11 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>1.4537037037371192E-2</v>
+        <v>1.134259258833481E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3140,14 +3188,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20.5594405594405</v>
+        <v>20.2972027972028</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
-        <f>COUNT(E:E)-2</f>
-        <v>34</v>
+        <f>COUNT(E:E)-3</f>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3181,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.805944055944</v>
+        <v>18.8548951048951</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3198,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.756993006993</v>
+        <v>17.674825174825099</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3215,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.7080419580419</v>
+        <v>16.625874125874098</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3232,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>15.314685314685301</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3249,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.790209790209801</v>
+        <v>15.4458041958042</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3266,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.265734265734199</v>
+        <v>15.314685314685301</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3283,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.0034965034965</v>
+        <v>14.790209790209801</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3300,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.0034965034965</v>
+        <v>14.3968531468531</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3317,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.741258741258701</v>
+        <v>14.527972027972</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3334,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.6101398601398</v>
+        <v>14.134615384615399</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3351,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.479020979021</v>
+        <v>14.265734265734199</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3368,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.085664335664299</v>
+        <v>14.0034965034965</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3385,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.479020979021</v>
+        <v>14.134615384615399</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3402,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.216783216783201</v>
+        <v>13.8723776223776</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3419,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.3479020979021</v>
+        <v>13.8723776223776</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3436,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.216783216783201</v>
+        <v>14.0034965034965</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3453,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.479020979021</v>
+        <v>13.8723776223776</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3470,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.085664335664299</v>
+        <v>13.8723776223776</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3487,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.085664335664299</v>
+        <v>13.8723776223776</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3504,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.216783216783201</v>
+        <v>13.741258741258701</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3521,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.216783216783201</v>
+        <v>13.741258741258701</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3538,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>13.3479020979021</v>
+        <v>13.8723776223776</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3555,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>13.216783216783201</v>
+        <v>14.134615384615399</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3572,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>12.9545454545454</v>
+        <v>13.8723776223776</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3589,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>13.085664335664299</v>
+        <v>13.741258741258701</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3606,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>13.085664335664299</v>
+        <v>13.741258741258701</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3623,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>12.9545454545454</v>
+        <v>13.741258741258701</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3640,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>13.085664335664299</v>
+        <v>13.741258741258701</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3657,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>13.085664335664299</v>
+        <v>13.6101398601398</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3674,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>12.9545454545454</v>
+        <v>14.0034965034965</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3691,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>13.085664335664299</v>
+        <v>13.479020979021</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3708,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>13.6101398601398</v>
+        <v>13.741258741258701</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3725,7 +3773,143 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>16.494755244755201</v>
+        <v>13.741258741258701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>13.741258741258701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>13.6101398601398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>13.8723776223776</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>13.479020979021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>13.8723776223776</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>15.4458041958042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>18.068181818181799</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>19.2482517482517</v>
       </c>
     </row>
   </sheetData>
@@ -3764,45 +3948,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 07:09:44</v>
+        <v>2023-12-10 21:31:38</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>13.216783216783201</v>
+        <v>13.741258741258701</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>13.097584233947838</v>
+        <v>13.717418944691644</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 07:10:47</v>
+        <v>2023-12-10 21:32:39</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>13.3479020979021</v>
+        <v>13.6101398601398</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>13.097584233947838</v>
+        <v>13.717418944691644</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 07:11:50</v>
+        <v>2023-12-10 21:33:40</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>13.216783216783201</v>
+        <v>14.0034965034965</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3811,35 +3995,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 07:12:52</v>
+        <v>2023-12-10 21:34:42</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>12.9545454545454</v>
+        <v>13.479020979021</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.12376046426337538</v>
+        <v>0.16395819005768134</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 07:13:55</v>
+        <v>2023-12-10 21:35:43</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>13.085664335664299</v>
+        <v>13.741258741258701</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 07:14:58</v>
+        <v>2023-12-10 21:36:44</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>13.085664335664299</v>
+        <v>13.741258741258701</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3848,36 +4032,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 07:16:01</v>
+        <v>2023-12-10 21:37:46</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>12.9545454545454</v>
+        <v>13.741258741258701</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>13.3479020979021</v>
+        <v>14.0034965034965</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 07:17:04</v>
+        <v>2023-12-10 21:38:47</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>13.085664335664299</v>
+        <v>13.6101398601398</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 07:18:06</v>
+        <v>2023-12-10 21:39:48</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>13.085664335664299</v>
+        <v>13.8723776223776</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3886,25 +4070,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 07:19:09</v>
+        <v>2023-12-10 21:40:49</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>12.9545454545454</v>
+        <v>13.479020979021</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>12.9545454545454</v>
+        <v>13.479020979021</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 07:20:12</v>
+        <v>2023-12-10 21:41:51</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>13.085664335664299</v>
+        <v>13.8723776223776</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
